--- a/target/test-classes/TestResult.xlsx
+++ b/target/test-classes/TestResult.xlsx
@@ -12,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>TestCase: 11</t>
+    <t>TestCase: 1</t>
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>TestCase: 2</t>
+  </si>
+  <si>
+    <t>TestCase: 3</t>
   </si>
 </sst>
 </file>
@@ -62,17 +68,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A12:B12"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
